--- a/20_Zeitplan/Zeitplanung_V2.xlsx
+++ b/20_Zeitplan/Zeitplanung_V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\20_Projektvereinbarung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\20_Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -452,11 +452,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -492,10 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -818,7 +830,7 @@
   <dimension ref="B5:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1017,8 +1029,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1081,7 +1092,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="15"/>
@@ -1095,8 +1106,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="15"/>
@@ -1112,8 +1123,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="1"/>
       <c r="N22" s="15"/>
     </row>
@@ -1174,7 +1185,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
+      <c r="B32" s="35"/>
       <c r="C32" t="s">
         <v>18</v>
       </c>

--- a/20_Zeitplan/Zeitplanung_V2.xlsx
+++ b/20_Zeitplan/Zeitplanung_V2.xlsx
@@ -827,20 +827,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N32"/>
+  <dimension ref="B5:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="14" width="8.375" customWidth="1"/>
+    <col min="4" max="15" width="8.375" customWidth="1"/>
+    <col min="16" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -872,13 +873,19 @@
         <v>43488</v>
       </c>
       <c r="M6" s="5">
-        <v>43497</v>
-      </c>
-      <c r="N6" s="6">
         <v>43516</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="5">
+        <v>43523</v>
+      </c>
+      <c r="O6" s="5">
+        <v>43525</v>
+      </c>
+      <c r="P6" s="6">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -892,9 +899,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
@@ -908,9 +917,11 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
@@ -924,9 +935,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
@@ -940,9 +953,11 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
@@ -956,9 +971,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
@@ -972,9 +989,11 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -988,9 +1007,11 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
@@ -1003,9 +1024,11 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
@@ -1019,9 +1042,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
@@ -1034,9 +1059,11 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1049,9 +1076,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1063,10 +1092,11 @@
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
@@ -1079,9 +1109,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1093,11 +1125,13 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
@@ -1107,12 +1141,13 @@
       <c r="G21" s="33"/>
       <c r="I21" s="34"/>
       <c r="J21" s="37"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
         <v>5</v>
       </c>
@@ -1123,12 +1158,14 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
@@ -1141,10 +1178,12 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1158,33 +1197,35 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="23"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="35"/>
       <c r="C32" t="s">
         <v>18</v>
